--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -421,40 +421,40 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-16T13:44:15.813Z</v>
+        <v>2025-02-17T19:16:41.089Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User ID Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-02-16T13:44:15.814Z</v>
+        <v>2025-02-17T19:16:41.574Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>Input Password</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-02-16T13:44:16.356Z</v>
+        <v>2025-02-17T19:16:41.782Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Passworhasbeeninputed</v>
+        <v>CAPTCHA Inserted</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-02-16T13:44:16.572Z</v>
+        <v>2025-02-17T19:16:42.060Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-16T13:44:15.813Z</v>
+        <v>2025-02-19T10:18:30.227Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-02-16T13:44:15.814Z</v>
+      <c r="D3" t="str">
+        <v>2025-02-19T10:18:55.126Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-02-16T13:44:16.356Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Passworhasbeeninputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-02-16T13:44:16.572Z</v>
+      <c r="D4" t="str">
+        <v>2025-02-19T10:18:55.284Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-19T10:18:30.227Z</v>
+        <v>2025-02-24T10:29:06.349Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-19T10:18:55.126Z</v>
+        <v>2025-02-24T10:29:45.733Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-19T10:18:55.284Z</v>
+        <v>2025-02-24T10:29:45.894Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-24T10:29:06.349Z</v>
+        <v>2025-02-25T10:16:58.635Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-24T10:29:45.733Z</v>
+        <v>2025-02-25T10:18:50.998Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-24T10:29:45.894Z</v>
+        <v>2025-02-25T10:18:51.161Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-25T10:16:58.635Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-02-25T10:18:50.998Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-02-25T10:18:51.161Z</v>
+        <v>2025-02-26T10:32:47.917Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-26T10:32:47.917Z</v>
+        <v>2025-02-26T22:59:25.013Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-02-26T23:00:29.849Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-02-26T23:00:30.001Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-26T22:59:25.013Z</v>
+        <v>2025-02-27T10:43:40.468Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-26T23:00:29.849Z</v>
+        <v>2025-02-27T10:44:17.790Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-26T23:00:30.001Z</v>
+        <v>2025-02-27T10:44:17.891Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-27T10:43:40.468Z</v>
+        <v>2025-02-28T07:49:11.901Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-27T10:44:17.790Z</v>
+        <v>2025-02-28T07:49:48.371Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-27T10:44:17.891Z</v>
+        <v>2025-02-28T07:49:48.515Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-28T07:49:11.901Z</v>
+        <v>2025-03-02T22:00:35.723Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-28T07:49:48.371Z</v>
+        <v>2025-03-02T22:01:15.512Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-28T07:49:48.515Z</v>
+        <v>2025-03-02T22:01:15.622Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-02T22:00:35.723Z</v>
+        <v>2025-03-03T04:20:40.500Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-02T22:01:15.512Z</v>
+        <v>2025-03-03T04:21:20.006Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-02T22:01:15.622Z</v>
+        <v>2025-03-03T04:21:20.116Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-03T04:20:40.500Z</v>
+        <v>2025-03-04T21:35:38.229Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-03T04:21:20.006Z</v>
+        <v>2025-03-04T21:36:49.541Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-03T04:21:20.116Z</v>
+        <v>2025-03-04T21:36:49.690Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-03T04:20:40.500Z</v>
+        <v>2025-03-04T06:16:56.588Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-03T04:21:20.006Z</v>
+        <v>2025-03-04T06:18:02.758Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-03T04:21:20.116Z</v>
+        <v>2025-03-04T06:18:02.900Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-04T21:35:38.229Z</v>
+        <v>2025-03-05T06:20:56.727Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-04T21:36:49.541Z</v>
+        <v>2025-03-05T06:21:39.849Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-04T21:36:49.690Z</v>
+        <v>2025-03-05T06:21:39.982Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-05T06:20:56.727Z</v>
+        <v>2025-03-06T05:21:07.427Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-05T06:21:39.849Z</v>
+        <v>2025-03-06T05:21:49.789Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-05T06:21:39.982Z</v>
+        <v>2025-03-06T05:21:49.919Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-06T05:21:07.427Z</v>
+        <v>2025-03-07T09:06:18.894Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-06T05:21:49.789Z</v>
+        <v>2025-03-07T09:07:23.730Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-06T05:21:49.919Z</v>
+        <v>2025-03-07T09:07:23.851Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-07T09:06:18.894Z</v>
+        <v>2025-03-10T00:47:03.175Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-07T09:07:23.730Z</v>
+        <v>2025-03-10T00:47:43.206Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-07T09:07:23.851Z</v>
+        <v>2025-03-10T00:47:43.310Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-10T00:47:03.175Z</v>
+        <v>2025-03-11T04:00:57.607Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-10T00:47:43.206Z</v>
+        <v>2025-03-11T04:01:36.536Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-10T00:47:43.310Z</v>
+        <v>2025-03-11T04:01:36.649Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-11T04:00:57.607Z</v>
+        <v>2025-03-12T03:01:47.272Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-11T04:01:36.536Z</v>
+        <v>2025-03-12T03:02:26.498Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-11T04:01:36.649Z</v>
+        <v>2025-03-12T03:02:26.606Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-12T03:01:47.272Z</v>
+        <v>2025-03-13T01:49:30.559Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-12T03:02:26.498Z</v>
+        <v>2025-03-13T01:49:37.976Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-12T03:02:26.606Z</v>
+        <v>2025-03-13T01:49:38.082Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-13T01:49:30.559Z</v>
+        <v>2025-03-14T04:08:18.804Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-13T01:49:37.976Z</v>
+        <v>2025-03-14T04:08:44.317Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-13T01:49:38.082Z</v>
+        <v>2025-03-14T04:08:44.459Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-14T04:08:18.804Z</v>
+        <v>2025-03-17T03:52:59.233Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-14T04:08:44.317Z</v>
+        <v>2025-03-17T03:53:25.626Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-14T04:08:44.459Z</v>
+        <v>2025-03-17T03:53:25.773Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-17T03:52:59.233Z</v>
+        <v>2025-03-18T03:34:45.824Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-17T03:53:25.626Z</v>
+        <v>2025-03-18T03:35:30.756Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-17T03:53:25.773Z</v>
+        <v>2025-03-18T03:35:30.920Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-18T03:34:45.824Z</v>
+        <v>2025-03-21T06:14:32.461Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-18T03:35:30.756Z</v>
+        <v>2025-03-21T06:15:15.918Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-18T03:35:30.920Z</v>
+        <v>2025-03-21T06:15:16.061Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-21T06:14:32.461Z</v>
+        <v>2025-03-24T06:25:22.698Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-21T06:15:15.918Z</v>
+        <v>2025-03-24T06:26:08.300Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-21T06:15:16.061Z</v>
+        <v>2025-03-24T06:26:08.455Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-24T06:25:22.698Z</v>
+        <v>2025-04-08T04:45:23.076Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-24T06:26:08.300Z</v>
+        <v>2025-04-08T04:45:56.932Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-24T06:26:08.455Z</v>
+        <v>2025-04-08T04:45:57.110Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-08T04:45:23.076Z</v>
+        <v>2025-04-23T09:26:28.701Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-08T04:45:56.932Z</v>
+        <v>2025-04-23T09:27:08.595Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-08T04:45:57.110Z</v>
+        <v>2025-04-23T09:27:08.738Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-23T09:26:28.701Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-04-23T09:27:08.595Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-04-23T09:27:08.738Z</v>
+        <v>2025-04-23T09:29:09.589Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-23T09:29:09.589Z</v>
+        <v>2025-04-23T16:56:17.282Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-04-23T16:56:52.942Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-04-23T16:56:53.051Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-23T16:56:17.282Z</v>
+        <v>2025-04-24T01:49:13.599Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-23T16:56:52.942Z</v>
+        <v>2025-04-24T01:49:50.029Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-23T16:56:53.051Z</v>
+        <v>2025-04-24T01:49:50.203Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-24T01:49:13.599Z</v>
+        <v>2025-05-03T06:28:03.630Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-24T01:49:50.029Z</v>
+        <v>2025-05-03T06:28:46.897Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-24T01:49:50.203Z</v>
+        <v>2025-05-03T06:28:47.017Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-03T06:28:03.630Z</v>
+        <v>2025-05-06T08:49:00.118Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-03T06:28:46.897Z</v>
+        <v>2025-05-06T08:49:10.758Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-03T06:28:47.017Z</v>
+        <v>2025-05-06T08:49:10.877Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-06T08:49:00.118Z</v>
+        <v>2025-05-13T06:35:10.738Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-06T08:49:10.758Z</v>
+        <v>2025-05-13T06:36:16.130Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-06T08:49:10.877Z</v>
+        <v>2025-05-13T06:36:16.255Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-13T06:35:10.738Z</v>
+        <v>2025-05-14T03:46:04.597Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-13T06:36:16.130Z</v>
+        <v>2025-05-14T03:46:49.441Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-13T06:36:16.255Z</v>
+        <v>2025-05-14T03:46:49.582Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-14T03:46:04.597Z</v>
+        <v>2025-05-27T07:22:27.001Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-14T03:46:49.441Z</v>
+        <v>2025-05-27T07:23:08.598Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-14T03:46:49.582Z</v>
+        <v>2025-05-27T07:23:08.711Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-27T07:22:27.001Z</v>
+        <v>2025-05-28T07:04:56.642Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-27T07:23:08.598Z</v>
+        <v>2025-05-28T07:06:01.326Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-27T07:23:08.711Z</v>
+        <v>2025-05-28T07:06:01.466Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-28T07:04:56.642Z</v>
+        <v>2025-06-14T14:09:34.397Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-28T07:06:01.326Z</v>
+        <v>2025-06-14T14:10:11.148Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-28T07:06:01.466Z</v>
+        <v>2025-06-14T14:10:11.310Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-14T14:09:34.397Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-06-14T14:10:11.148Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-06-14T14:10:11.310Z</v>
+        <v>2025-06-17T07:39:27.000Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-17T07:39:27.000Z</v>
+        <v>2025-06-22T13:26:44.063Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-06-22T13:26:49.486Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-06-22T13:26:49.598Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-17T07:39:27.000Z</v>
+        <v>2025-06-19T06:31:06.379Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-06-19T06:31:23.236Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di PROJECT ACTIVITY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-06-19T06:31:23.339Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-19T06:31:06.379Z</v>
+        <v>2025-07-02T07:12:28.834Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,18 +435,18 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-06-19T06:31:23.236Z</v>
+        <v>2025-07-02T07:14:16.942Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di PROJECT ACTIVITY</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-06-19T06:31:23.339Z</v>
+        <v>2025-07-02T07:14:17.084Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-02T07:12:28.834Z</v>
+        <v>2025-07-04T08:44:41.080Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-02T07:14:16.942Z</v>
+        <v>2025-07-04T08:44:57.908Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-02T07:14:17.084Z</v>
+        <v>2025-07-04T08:44:58.068Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-04T08:44:41.080Z</v>
+        <v>2025-07-15T07:02:56.491Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-04T08:44:57.908Z</v>
+        <v>2025-07-15T07:03:00.726Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-04T08:44:58.068Z</v>
+        <v>2025-07-15T07:03:00.834Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-15T07:02:56.491Z</v>
+        <v>2025-07-18T09:02:14.270Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-15T07:03:00.726Z</v>
+        <v>2025-07-18T09:02:28.387Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-15T07:03:00.834Z</v>
+        <v>2025-07-18T09:02:28.531Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-18T09:02:14.270Z</v>
+        <v>2025-07-19T01:38:43.388Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-18T09:02:28.387Z</v>
+        <v>2025-07-19T01:38:57.517Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-18T09:02:28.531Z</v>
+        <v>2025-07-19T01:38:57.634Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-19T01:38:43.388Z</v>
+        <v>2025-07-21T16:52:53.203Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-19T01:38:57.517Z</v>
+        <v>2025-07-21T16:52:57.771Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-19T01:38:57.634Z</v>
+        <v>2025-07-21T16:52:57.918Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-21T16:52:53.203Z</v>
+        <v>2025-07-24T04:06:18.826Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-21T16:52:57.771Z</v>
+        <v>2025-07-24T04:06:28.680Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-21T16:52:57.918Z</v>
+        <v>2025-07-24T04:06:28.788Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-24T04:06:18.826Z</v>
+        <v>2025-07-28T04:16:09.797Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-24T04:06:28.680Z</v>
+        <v>2025-07-28T04:16:38.320Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-24T04:06:28.788Z</v>
+        <v>2025-07-28T04:16:38.463Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,19 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-28T04:16:09.797Z</v>
+        <v>2025-08-10T08:04:28.599Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-28T04:16:38.320Z</v>
+        <v>2025-08-10T08:04:34.687Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,12 +449,67 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-28T04:16:38.463Z</v>
+        <v>2025-08-10T08:04:34.939Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-08-10T08:04:52.287Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-08-10T08:04:58.289Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-08-10T08:04:58.471Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User ARO melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2025-08-10T08:05:43.329Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2025-08-10T08:05:43.887Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-10T08:04:28.599Z</v>
+        <v>2025-08-11T06:26:45.439Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-10T08:04:34.687Z</v>
+        <v>2025-08-11T06:26:56.194Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,67 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-10T08:04:34.939Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-08-10T08:04:52.287Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-08-10T08:04:58.289Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2025-08-10T08:04:58.471Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2025-08-10T08:05:43.329Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2025-08-10T08:05:43.887Z</v>
+        <v>2025-08-11T06:26:56.313Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-11T06:26:45.439Z</v>
+        <v>2025-08-15T08:47:09.042Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-11T06:26:56.194Z</v>
+        <v>2025-08-15T08:47:20.004Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-11T06:26:56.313Z</v>
+        <v>2025-08-15T08:47:20.146Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,19 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-15T08:47:09.042Z</v>
+        <v>2025-08-19T07:32:18.408Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-15T08:47:20.004Z</v>
+        <v>2025-08-19T07:32:24.500Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,12 +449,67 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-15T08:47:20.146Z</v>
+        <v>2025-08-19T07:32:24.967Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-08-19T07:32:47.482Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-08-19T07:32:53.284Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-08-19T07:32:53.469Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User ARO melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2025-08-19T07:33:41.671Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2025-08-19T07:33:41.835Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-19T07:32:18.408Z</v>
+        <v>2025-08-21T02:14:54.722Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-19T07:32:24.500Z</v>
+        <v>2025-08-21T02:15:01.023Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-19T07:32:24.967Z</v>
+        <v>2025-08-21T02:15:01.185Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-08-19T07:32:47.482Z</v>
+        <v>2025-08-21T02:15:18.744Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,7 +471,7 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-08-19T07:32:53.284Z</v>
+        <v>2025-08-21T02:15:24.744Z</v>
       </c>
     </row>
     <row r="7">
@@ -482,7 +482,7 @@
         <v>Pass</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-08-19T07:32:53.469Z</v>
+        <v>2025-08-21T02:15:24.915Z</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>Pass</v>
       </c>
       <c r="E8" t="str">
-        <v>2025-08-19T07:33:41.671Z</v>
+        <v>2025-08-21T02:16:07.952Z</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>Pass</v>
       </c>
       <c r="E9" t="str">
-        <v>2025-08-19T07:33:41.835Z</v>
+        <v>2025-08-21T02:16:08.114Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,35 +410,32 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
+        <v>TimeStamp</v>
       </c>
       <c r="D1" t="str">
         <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-21T02:14:54.722Z</v>
+        <v>2025-08-29T03:33:48.763Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-08-21T02:15:01.023Z</v>
+      <c r="C3" t="str">
+        <v>2025-08-29T03:33:57.176Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,67 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-21T02:15:01.185Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-08-21T02:15:18.744Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-08-21T02:15:24.744Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2025-08-21T02:15:24.915Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2025-08-21T02:16:07.952Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2025-08-21T02:16:08.114Z</v>
+        <v>2025-08-29T03:33:57.375Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,46 +412,32 @@
       <c r="C1" t="str">
         <v>TimeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+        <v>User ARO melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-29T03:33:48.763Z</v>
+        <v>2025-09-08T08:22:52.152Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-08-29T03:33:57.176Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-08-29T03:33:57.375Z</v>
+        <v>2025-09-08T08:22:52.315Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,23 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-08T08:22:52.152Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-09-08T08:22:52.315Z</v>
+        <v>2025-09-22T04:03:55.111Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,23 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>TimeStamp</v>
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-22T04:03:55.111Z</v>
+        <v>2025-10-23T06:45:25.569Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-10-23T06:45:29.781Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-10-23T06:45:29.922Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-23T06:45:25.569Z</v>
+        <v>2025-10-29T09:33:47.743Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-10-23T06:45:29.781Z</v>
+        <v>2025-10-29T09:33:57.543Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-10-23T06:45:29.922Z</v>
+        <v>2025-10-29T09:33:57.686Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-29T09:33:47.743Z</v>
+        <v>2025-10-23T06:45:25.569Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-10-29T09:33:57.543Z</v>
+        <v>2025-10-23T06:45:29.781Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-10-29T09:33:57.686Z</v>
+        <v>2025-10-23T06:45:29.922Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-23T06:45:25.569Z</v>
+        <v>2025-11-10T08:10:15.313Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,18 +435,18 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-10-23T06:45:29.781Z</v>
+        <v>2025-11-10T08:10:58.617Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di PROJECT ACTIVITY</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-10-23T06:45:29.922Z</v>
+        <v>2025-11-10T08:10:58.741Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-10T08:10:15.313Z</v>
+        <v>2025-11-11T02:41:53.968Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,18 +435,18 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-11-10T08:10:58.617Z</v>
+        <v>2025-11-11T02:41:59.266Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di PROJECT ACTIVITY</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-11-10T08:10:58.741Z</v>
+        <v>2025-11-11T02:41:59.443Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -410,7 +410,7 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
+        <v>TimeStamp</v>
       </c>
       <c r="D1" t="str">
         <v>Timestamp</v>
@@ -418,13 +418,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Project activity Header</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-11T02:41:53.968Z</v>
+        <v>2025-11-12T07:36:35.009Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-11-11T02:41:59.266Z</v>
+        <v>2025-11-12T07:36:43.185Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-11-11T02:41:59.443Z</v>
+        <v>2025-11-12T07:36:43.379Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,46 +412,32 @@
       <c r="C1" t="str">
         <v>TimeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+        <v>User ARO melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-12T07:36:35.009Z</v>
+        <v>2025-11-21T02:05:50.721Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-11-12T07:36:43.185Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-11-12T07:36:43.379Z</v>
+      <c r="C3" t="str">
+        <v>2025-11-21T02:05:50.918Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,34 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>TimeStamp</v>
+        <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-21T02:05:50.721Z</v>
+        <v>2025-11-27T09:06:05.580Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-11-21T02:05:50.918Z</v>
+        <v>2025-11-27T09:06:05.580Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User ID Input</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-11-27T09:06:06.994Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Passworhasbeeninputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-11-27T09:06:07.243Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,34 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>Timestamp</v>
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User ARO melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-27T09:06:05.580Z</v>
+        <v>2025-12-01T08:41:51.667Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-11-27T09:06:05.580Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User ID Input</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-11-27T09:06:06.994Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Passworhasbeeninputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-11-27T09:06:07.243Z</v>
+        <v>2025-12-01T08:41:51.882Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,34 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>TimeStamp</v>
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-01T08:41:51.667Z</v>
+        <v>2025-12-04T08:26:53.394Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-12-01T08:41:51.882Z</v>
+      <c r="D3" t="str">
+        <v>2025-12-04T08:26:58.221Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-12-04T08:26:58.366Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-04T08:26:53.394Z</v>
+        <v>2025-12-07T04:50:18.632Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-04T08:26:58.221Z</v>
+        <v>2025-12-07T04:51:01.806Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-04T08:26:58.366Z</v>
+        <v>2025-12-07T04:51:02.036Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-07T04:50:18.632Z</v>
+        <v>2025-12-11T01:56:10.612Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-07T04:51:01.806Z</v>
+        <v>2025-12-11T01:56:48.571Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-07T04:51:02.036Z</v>
+        <v>2025-12-11T01:56:48.718Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-11T01:56:10.612Z</v>
+        <v>2025-12-15T07:50:50.373Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-11T01:56:48.571Z</v>
+        <v>2025-12-15T07:51:00.271Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-11T01:56:48.718Z</v>
+        <v>2025-12-15T07:51:00.522Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
+++ b/cypress/downloads/test-StipinputNewBuildMacroresults.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-15T07:50:50.373Z</v>
+        <v>2025-12-19T03:06:19.054Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-15T07:51:00.271Z</v>
+        <v>2025-12-19T03:06:54.354Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-15T07:51:00.522Z</v>
+        <v>2025-12-19T03:06:54.553Z</v>
       </c>
     </row>
   </sheetData>
